--- a/reportes/RI10.10.2.78.xlsx
+++ b/reportes/RI10.10.2.78.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t xml:space="preserve">Gonzàlez </t>
-  </si>
-  <si>
-    <t>Jimenez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>/201761881</t>
+    <t>FIGUEROA</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>LISBETH</t>
+  </si>
+  <si>
+    <t>CARLOTA</t>
+  </si>
+  <si>
+    <t>/201761828</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -91,13 +91,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1979-09-11</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala </t>
+    <t>1961-08-15</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>GUATEMLA</t>
   </si>
   <si>
     <t>FEMENINO</t>
@@ -118,10 +118,13 @@
     <t>CASADO</t>
   </si>
   <si>
-    <t xml:space="preserve">Ama de casa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No presento </t>
+    <t>AMA DE CASA</t>
+  </si>
+  <si>
+    <t>GUATEMALTECA</t>
+  </si>
+  <si>
+    <t>NO PRESENTO</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -145,16 +148,16 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t xml:space="preserve">Gillermo Gonzàlez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermano </t>
-  </si>
-  <si>
-    <t>Maz 4 col. Maya z.18</t>
-  </si>
-  <si>
-    <t>3348 2030</t>
+    <t>HERNAN RIOS</t>
+  </si>
+  <si>
+    <t>ESPOSO</t>
+  </si>
+  <si>
+    <t>AV. ELENA B 15-11 ZONA 1</t>
+  </si>
+  <si>
+    <t>42097131</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -179,6 +182,12 @@
   </si>
   <si>
     <t>Dias de estancia</t>
+  </si>
+  <si>
+    <t>24/10/2017</t>
+  </si>
+  <si>
+    <t>15:25:49</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1254,11 +1263,11 @@
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1266,14 +1275,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1300,14 +1309,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1334,18 +1343,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1355,35 +1364,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1410,36 +1419,36 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>17</v>
@@ -1454,7 +1463,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1495,7 +1504,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1506,7 +1515,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1538,7 +1547,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1549,7 +1558,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1594,7 +1603,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1605,7 +1614,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1638,46 +1647,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1697,7 +1706,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1706,13 +1715,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1727,7 +1736,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/RI10.10.2.78.xlsx
+++ b/reportes/RI10.10.2.78.xlsx
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>FIGUEROA</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>LISBETH</t>
-  </si>
-  <si>
-    <t>CARLOTA</t>
-  </si>
-  <si>
-    <t>/201761828</t>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>PEÑATE</t>
+  </si>
+  <si>
+    <t>BLANCA</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>/201768743</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -91,13 +91,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1961-08-15</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>GUATEMLA</t>
+    <t>1955-11-27</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>SANTA ROSA</t>
   </si>
   <si>
     <t>FEMENINO</t>
@@ -115,16 +115,16 @@
     <t>No. De Cédula</t>
   </si>
   <si>
-    <t>CASADO</t>
-  </si>
-  <si>
-    <t>AMA DE CASA</t>
+    <t>SOLTERO</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>GUATEMALTECA</t>
   </si>
   <si>
-    <t>NO PRESENTO</t>
+    <t>2388566900608</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -148,16 +148,16 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>HERNAN RIOS</t>
-  </si>
-  <si>
-    <t>ESPOSO</t>
-  </si>
-  <si>
-    <t>AV. ELENA B 15-11 ZONA 1</t>
-  </si>
-  <si>
-    <t>42097131</t>
+    <t xml:space="preserve">MARIA AMBROCIO </t>
+  </si>
+  <si>
+    <t>HIJA</t>
+  </si>
+  <si>
+    <t>NUEVA CONCEPCION ESCUINTLA</t>
+  </si>
+  <si>
+    <t>3015 2873</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -184,10 +184,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>24/10/2017</t>
-  </si>
-  <si>
-    <t>15:25:49</t>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>14:32:7</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>

--- a/reportes/RI10.10.2.78.xlsx
+++ b/reportes/RI10.10.2.78.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>HOSPITAL GENERAL SAN JUAN DE DIOS</t>
   </si>
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t>GIL   MARROQUIN  TRINIDAD   ISABEL</t>
-  </si>
-  <si>
-    <t>/201773440</t>
+    <t xml:space="preserve">PERALTA   MEJICANOS  GUADALUPE  </t>
+  </si>
+  <si>
+    <t>/201771110</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,13 +49,13 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>1933-07-02</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>ESTA CAPITAL</t>
+    <t>1956-12-05</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
   </si>
   <si>
     <t>FEMENINO</t>
@@ -76,79 +76,82 @@
     <t>SOLTERO</t>
   </si>
   <si>
+    <t xml:space="preserve">AMA DE CASA </t>
+  </si>
+  <si>
+    <t>GUATEMALTECA</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>En caso de emergencia notificar a:</t>
+  </si>
+  <si>
+    <t>Parentesco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direccion </t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARMEN MORALES </t>
+  </si>
+  <si>
+    <t>SOBRINA</t>
+  </si>
+  <si>
+    <t>13 CALLE C 2-58 Z. 3</t>
+  </si>
+  <si>
+    <t>59142279</t>
+  </si>
+  <si>
+    <t>Fecha de la asistencia Médica</t>
+  </si>
+  <si>
+    <t>Hora: 9:16:31</t>
+  </si>
+  <si>
+    <t>Area de urgencia: null</t>
+  </si>
+  <si>
+    <t>23/11/2017</t>
+  </si>
+  <si>
+    <t>MEDICINA</t>
+  </si>
+  <si>
+    <t>CIRUGIA</t>
+  </si>
+  <si>
+    <t>TRAUMA</t>
+  </si>
+  <si>
+    <t>OBSTETRICIA</t>
+  </si>
+  <si>
+    <t>GINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Consulta </t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>URGENCIA</t>
+  </si>
+  <si>
+    <t>CONSULTA EXTERNA EXTEMPORANEA</t>
+  </si>
+  <si>
+    <t>MOTIVO DE CONSULTA</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>GUATEMALTECA</t>
-  </si>
-  <si>
-    <t>NO PRESENTO</t>
-  </si>
-  <si>
-    <t>En caso de emergencia notificar a:</t>
-  </si>
-  <si>
-    <t>Parentesco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direccion </t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>NORMA CHICHE</t>
-  </si>
-  <si>
-    <t>HIJA</t>
-  </si>
-  <si>
-    <t>18 CALLE 17-64 INTERIOR 4 ZONA 12</t>
-  </si>
-  <si>
-    <t>5066 2069</t>
-  </si>
-  <si>
-    <t>Fecha de la asistencia Médica</t>
-  </si>
-  <si>
-    <t>Hora: 15:32:45</t>
-  </si>
-  <si>
-    <t>Area de urgencia: CIRUGIA</t>
-  </si>
-  <si>
-    <t>20/11/2017</t>
-  </si>
-  <si>
-    <t>MEDICINA</t>
-  </si>
-  <si>
-    <t>CIRUGIA</t>
-  </si>
-  <si>
-    <t>TRAUMA</t>
-  </si>
-  <si>
-    <t>OBSTETRICIA</t>
-  </si>
-  <si>
-    <t>GINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de Consulta </t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>URGENCIA</t>
-  </si>
-  <si>
-    <t>CONSULTA EXTERNA EXTEMPORANEA</t>
-  </si>
-  <si>
-    <t>MOTIVO DE CONSULTA</t>
   </si>
   <si>
     <t>HISTORIA DE LA ENFERMEDAD</t>
@@ -1144,7 +1147,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1166,7 +1169,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -1178,7 +1181,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1200,7 +1203,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1306,13 +1309,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="F34" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
@@ -1323,7 +1326,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1335,13 +1338,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H37" s="34"/>
     </row>
@@ -1351,7 +1354,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -1421,7 +1424,7 @@
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
       <c r="E46" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
